--- a/审批记录匹配.xlsx
+++ b/审批记录匹配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500"/>
+    <workbookView windowWidth="13725" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4470,10 +4470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,###,###,###,##0.00"/>
     <numFmt numFmtId="177" formatCode="###,###,###,###,###,##0.00000"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
@@ -4495,14 +4495,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4523,8 +4524,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4538,6 +4540,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -4545,9 +4555,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4561,8 +4578,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4591,22 +4609,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -4616,23 +4618,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4665,37 +4665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4707,25 +4683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4743,7 +4701,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4767,12 +4743,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4791,7 +4761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4809,13 +4791,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4827,13 +4827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4859,11 +4859,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4878,16 +4884,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4909,6 +4915,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -4917,42 +4934,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4964,10 +4964,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4976,31 +4976,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5009,100 +5009,100 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5464,17 +5464,27 @@
   <sheetPr/>
   <dimension ref="A1:BD192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="AE101" sqref="AE101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="4" max="5" width="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="26.25" customWidth="1"/>
+    <col min="13" max="15" width="9" hidden="1" customWidth="1"/>
+    <col min="23" max="30" width="9" hidden="1" customWidth="1"/>
+    <col min="32" max="35" width="9" hidden="1" customWidth="1"/>
+    <col min="37" max="41" width="9" hidden="1" customWidth="1"/>
+    <col min="44" max="50" width="9" hidden="1" customWidth="1"/>
+    <col min="52" max="53" width="9" hidden="1" customWidth="1"/>
     <col min="55" max="55" width="11.25" customWidth="1"/>
     <col min="56" max="56" width="17" customWidth="1"/>
   </cols>
